--- a/data/22-08-2025-lookup_types-export.xlsx
+++ b/data/22-08-2025-lookup_types-export.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="418">
   <si>
     <t>Id</t>
   </si>
@@ -1244,6 +1244,27 @@
   </si>
   <si>
     <t>t_joint</t>
+  </si>
+  <si>
+    <t>ad3477d5-de78-4b9f-9302-a4b5db326e9f</t>
+  </si>
+  <si>
+    <t>OFC_OWNER</t>
+  </si>
+  <si>
+    <t>BSNL</t>
+  </si>
+  <si>
+    <t>bsnl</t>
+  </si>
+  <si>
+    <t>e40c2549-11ec-485d-a67a-8261fcaec68a</t>
+  </si>
+  <si>
+    <t>BBNL</t>
+  </si>
+  <si>
+    <t>bbnl</t>
   </si>
 </sst>
 </file>
@@ -1684,7 +1705,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4968,35 +4989,99 @@
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="9" t="s">
+      <c r="A103" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="C103" s="10" t="s">
+      <c r="C103" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="D103" s="10" t="s">
+      <c r="D103" s="7" t="s">
         <v>410</v>
       </c>
-      <c r="E103" s="10" t="s">
+      <c r="E103" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="F103" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I103" s="11">
+      <c r="F103" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G103" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" s="8">
         <v>45890</v>
       </c>
-      <c r="J103" s="11">
+      <c r="J103" s="8">
         <v>45890</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B104" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="5">
+        <v>45891.71068532407</v>
+      </c>
+      <c r="J104" s="5">
+        <v>45891.71068532407</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="E105" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F105" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="11">
+        <v>45891.71084648148</v>
+      </c>
+      <c r="J105" s="11">
+        <v>45891.71084648148</v>
       </c>
     </row>
   </sheetData>
